--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-016 - Abnormal Selain Sales AMA Melakukan Input Agenda.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-016 - Abnormal Selain Sales AMA Melakukan Input Agenda.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC02D65-9BE6-4C42-840B-C6857ED665B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA39E2B9-DA25-4716-916B-A7CACE53CFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0338" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0026" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,9 +101,6 @@
     <t>TEXT10</t>
   </si>
   <si>
-    <t>SCD0338-016</t>
-  </si>
-  <si>
     <t>Abnormal selain Sales AMA melakukan input agenda</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Pemimpin Cabang</t>
+  </si>
+  <si>
+    <t>SCD0026-016</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>52326</v>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>18</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>37679</v>
@@ -709,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>18</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>32281</v>
@@ -745,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>18</v>
@@ -763,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>26482</v>
@@ -781,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>18</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>18718</v>
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>18</v>
